--- a/example/GitConverter.xlsx
+++ b/example/GitConverter.xlsx
@@ -441,7 +441,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Коммиты с 2016-01-01 по 2024-03-01</t>
+          <t>Коммиты с 2016-01-01 по 2024-03-18</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ВерсииХранилища</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -512,195 +512,195 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9670</v>
+        <v>1317</v>
       </c>
       <c r="H7" t="n">
-        <v>4799</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ВерсииХранилища</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ivan Maslikov</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ivan.maslikov@gmail.com</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>1445</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>КопииХранилищКонфигурации</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Антон</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>33430119+BProg-Gladkov@users.noreply.github.com</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>623</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>КопииХранилищКонфигурации</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Andrei Ovsiankin</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ovsiankin.aa@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ОчередиВыполнения</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Evgeny Zabelin</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>eug2603@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>579</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ОчередиВыполнения</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Бронников Владимир Сергеевич</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>vsbronnikov@gmail.com</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>125</v>
+        <v>570</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ОчередиВыполнения</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fenixnow</t>
+          <t>Popov_MA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>fenixnow@mail.ru</t>
+          <t>popma@1c.ru</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ХранилищаКонфигураций</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -711,159 +711,159 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8420</v>
+        <v>2741</v>
       </c>
       <c r="H14" t="n">
-        <v>6250</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ХранилищаКонфигураций</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Завялик Павел Сергеевич</t>
+          <t>Бронников Владимир Сергеевич</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>zavp@1c.ru</t>
+          <t>vsbronnikov@gmail.com</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ХранилищаКонфигураций</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Бахтиев Рамиз Ильгизович</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>bahr@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>204</v>
+        <v>1857</v>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ХранилищаКонфигураций</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ILazutin</t>
+          <t>Завялик Павел Сергеевич</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>lazutin.ilya@gmail.com</t>
+          <t>zavp@1c.ru</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>КонвертацияХранилища</t>
+          <t>ХранилищаКонфигураций</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vladislav Moroz</t>
+          <t>Бахтиев Рамиз Ильгизович</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>vlad.frost@gmail.com</t>
+          <t>bahr@1c.ru</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>CommonModules</t>
+          <t>Catalogs</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ОбработкаОчередей</t>
+          <t>ХранилищаКонфигураций</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Popov_MA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>popma@1c.ru</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>459</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -874,7 +874,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ОбработкаОчередей</t>
+          <t>ДлительныеОперации</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -885,14 +885,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>370</v>
+        <v>540</v>
       </c>
       <c r="H20" t="n">
-        <v>353</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21">
@@ -903,7 +903,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ОбщегоНазначения</t>
+          <t>ДлительныеОперации</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -914,14 +914,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>753</v>
+        <v>538</v>
       </c>
       <c r="H21" t="n">
-        <v>329</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22">
@@ -932,7 +932,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ОбщегоНазначения</t>
+          <t>ДлительныеОперацииКлиент</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>662</v>
+        <v>96</v>
       </c>
       <c r="H22" t="n">
-        <v>620</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -961,7 +961,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ДлительныеОперации</t>
+          <t>ДлительныеОперацииКлиент</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>540</v>
+        <v>88</v>
       </c>
       <c r="H23" t="n">
-        <v>266</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -990,7 +990,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ДлительныеОперации</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1001,14 +1001,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>538</v>
+        <v>9670</v>
       </c>
       <c r="H24" t="n">
-        <v>522</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="25">
@@ -1019,25 +1019,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ОбщегоНазначенияПовтИсп</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Ivan Maslikov</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>ivan.maslikov@gmail.com</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>497</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
-        <v>246</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1048,25 +1048,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ОбщегоНазначенияПовтИсп</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Антон</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>33430119+BProg-Gladkov@users.noreply.github.com</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>474</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1077,25 +1077,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ДлительныеОперацииКлиент</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Andrei Ovsiankin</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>ovsiankin.aa@gmail.com</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1106,25 +1106,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ДлительныеОперацииКлиент</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Evgeny Zabelin</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>eug2603@gmail.com</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1135,25 +1135,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ОбщегоНазначенияГлобальный</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Бронников Владимир Сергеевич</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>vsbronnikov@gmail.com</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="H29" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1164,25 +1164,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ОбщегоНазначенияГлобальный</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Fenixnow</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>fenixnow@mail.ru</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ОбщегоНазначенияКлиент</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>190</v>
+        <v>8420</v>
       </c>
       <c r="H31" t="n">
-        <v>174</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="32">
@@ -1222,25 +1222,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ОбщегоНазначенияКлиент</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Завялик Павел Сергеевич</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>zavp@1c.ru</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="H32" t="n">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1251,25 +1251,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ОбщегоНазначенияКлиентСервер</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Бахтиев Рамиз Ильгизович</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>bahr@1c.ru</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>510</v>
+        <v>204</v>
       </c>
       <c r="H33" t="n">
-        <v>494</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1280,25 +1280,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ОбщегоНазначенияКлиентСервер</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>ILazutin</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>lazutin.ilya@gmail.com</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>502</v>
+        <v>28</v>
       </c>
       <c r="H34" t="n">
-        <v>247</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1309,25 +1309,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>РаботаВБезопасномРежиме</t>
+          <t>КонвертацияХранилища</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Vladislav Moroz</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>vlad.frost@gmail.com</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>РаботаВБезопасномРежиме</t>
+          <t>ОбработкаОчередей</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="H36" t="n">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>РегламентныеЗаданияСервер</t>
+          <t>ОбработкаОчередей</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>482</v>
+        <v>370</v>
       </c>
       <c r="H37" t="n">
-        <v>466</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>РегламентныеЗаданияСервер</t>
+          <t>ОбщегоНазначения</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>940</v>
+        <v>753</v>
       </c>
       <c r="H38" t="n">
-        <v>466</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>РегламентныеЗаданияСлужебный</t>
+          <t>ОбщегоНазначения</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1268</v>
+        <v>662</v>
       </c>
       <c r="H39" t="n">
-        <v>1252</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>РегламентныеЗаданияСлужебный</t>
+          <t>ОбщегоНазначенияГлобальный</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1465,14 +1465,14 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1260</v>
+        <v>48</v>
       </c>
       <c r="H40" t="n">
-        <v>627</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>СтандартныеПодсистемыСервер</t>
+          <t>ОбщегоНазначенияГлобальный</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>637</v>
+        <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>621</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>СтандартныеПодсистемыСервер</t>
+          <t>ОбщегоНазначенияКлиент</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1523,14 +1523,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>629</v>
+        <v>190</v>
       </c>
       <c r="H42" t="n">
-        <v>311</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>СтроковыеФункцииКлиентСервер</t>
+          <t>ОбщегоНазначенияКлиент</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1552,14 +1552,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="H43" t="n">
-        <v>422</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>СтроковыеФункцииКлиентСервер</t>
+          <t>ОбщегоНазначенияКлиентСервер</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1581,25 +1581,25 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="H44" t="n">
-        <v>211</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ХранилищаКонфигураций</t>
+          <t>ОбщегоНазначенияКлиентСервер</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1614,50 +1614,50 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2741</v>
+        <v>502</v>
       </c>
       <c r="H45" t="n">
-        <v>835</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ХранилищаКонфигураций</t>
+          <t>ОбщегоНазначенияПовтИсп</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Бронников Владимир Сергеевич</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>vsbronnikov@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ХранилищаКонфигураций</t>
+          <t>ОбщегоНазначенияПовтИсп</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1672,108 +1672,108 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1857</v>
+        <v>474</v>
       </c>
       <c r="H47" t="n">
-        <v>1372</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ХранилищаКонфигураций</t>
+          <t>РаботаВБезопасномРежиме</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Завялик Павел Сергеевич</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>zavp@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="H48" t="n">
-        <v>20</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ХранилищаКонфигураций</t>
+          <t>РаботаВБезопасномРежиме</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Бахтиев Рамиз Ильгизович</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>bahr@1c.ru</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>492</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ХранилищаКонфигураций</t>
+          <t>РегламентныеЗаданияСервер</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Popov_MA</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>popma@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>16</v>
+        <v>482</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ВерсииХранилища</t>
+          <t>РегламентныеЗаданияСервер</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -1788,21 +1788,21 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1317</v>
+        <v>940</v>
       </c>
       <c r="H51" t="n">
-        <v>620</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ВерсииХранилища</t>
+          <t>РегламентныеЗаданияСлужебный</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1817,21 +1817,21 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1445</v>
+        <v>1268</v>
       </c>
       <c r="H52" t="n">
-        <v>1217</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ОчередиВыполнения</t>
+          <t>РегламентныеЗаданияСлужебный</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -1846,21 +1846,21 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>579</v>
+        <v>1260</v>
       </c>
       <c r="H53" t="n">
-        <v>245</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ОчередиВыполнения</t>
+          <t>СтандартныеПодсистемыСервер</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1875,50 +1875,50 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="H54" t="n">
-        <v>482</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ОчередиВыполнения</t>
+          <t>СтандартныеПодсистемыСервер</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Popov_MA</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>popma@1c.ru</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>16</v>
+        <v>629</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>КопииХранилищКонфигурации</t>
+          <t>СтроковыеФункцииКлиентСервер</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1933,21 +1933,21 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>623</v>
+        <v>438</v>
       </c>
       <c r="H56" t="n">
-        <v>571</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Catalogs</t>
+          <t>CommonModules</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>КопииХранилищКонфигурации</t>
+          <t>СтроковыеФункцииКлиентСервер</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1962,21 +1962,21 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>588</v>
+        <v>430</v>
       </c>
       <c r="H57" t="n">
-        <v>286</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Constants</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>КонвертацияВФорматEDT</t>
+          <t>ПутьКВерсиямПлатформыНаСервере</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -1987,25 +1987,25 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1105</v>
+        <v>64</v>
       </c>
       <c r="H58" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Constants</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>КонвертацияВФорматEDT</t>
+          <t>ПутьКВерсиямПлатформыНаСервере</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2016,43 +2016,43 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2087</v>
+        <v>30</v>
       </c>
       <c r="H59" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>DataProcessors</t>
+          <t>Constants</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>КонвертацияВФорматEDT</t>
+          <t>ПутьКВерсиямПлатформыНаСервере</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Завялик Павел Сергеевич</t>
+          <t>ILazutin</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>zavp@1c.ru</t>
+          <t>lazutin.ilya@gmail.com</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>РегламентныеИФоновыеЗадания</t>
+          <t>КонвертацияВФорматEDT</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2074,14 +2074,14 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2862</v>
+        <v>1105</v>
       </c>
       <c r="H61" t="n">
-        <v>2802</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>РегламентныеИФоновыеЗадания</t>
+          <t>КонвертацияВФорматEDT</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2103,54 +2103,54 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2833</v>
+        <v>2087</v>
       </c>
       <c r="H62" t="n">
-        <v>1401</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Constants</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ПутьКВерсиямПлатформыНаСервере</t>
+          <t>КонвертацияВФорматEDT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Dmitriy Marmyshev</t>
+          <t>Завялик Павел Сергеевич</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>marmyshev@gmail.com</t>
+          <t>zavp@1c.ru</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Constants</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ПутьКВерсиямПлатформыНаСервере</t>
+          <t>РегламентныеИФоновыеЗадания</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2161,43 +2161,43 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>dmar@1c.ru</t>
+          <t>marmyshev@gmail.com</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>30</v>
+        <v>2862</v>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Constants</t>
+          <t>DataProcessors</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ПутьКВерсиямПлатформыНаСервере</t>
+          <t>РегламентныеИФоновыеЗадания</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ILazutin</t>
+          <t>Dmitriy Marmyshev</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>lazutin.ilya@gmail.com</t>
+          <t>dmar@1c.ru</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>2833</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="66">
